--- a/solution.xlsx
+++ b/solution.xlsx
@@ -476,10 +476,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -537,37 +537,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">142.250.67.78
-</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MarkMonitor, Inc.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2028-09-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">142.250.67.46
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t xml:space="preserve">20 alt1.aspmx.l.google.com.
-10 aspmx.l.google.com.
 30 alt2.aspmx.l.google.com.
 50 alt4.aspmx.l.google.com.
-0 smtp.google.com.
+10 aspmx.l.google.com.
 40 alt3.aspmx.l.google.com.
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MarkMonitor, Inc.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"google-site-verification=TV9-DBe4R80X4v0M4U_bd_J9cpOJM0nikft0jAgjmsQ"
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"MS=E4A68B9AB2BB9670BCE15412F62916164C0B20BB"
+"v=spf1 include:_spf.google.com ~all"
+"facebook-domain-verification=22rm551cu4k0ab0bxsw536tlds4h95"
+"globalsign-smime-dv=CDYX+XFHUw2wml6/Gb8+59BsH31KzUr6c1l2BPvqKX8="
+"google-site-verification=wD8N7i1JTNTkezJ49swvWW48f8_9xveREV4oB-0Hf5o"
+"google-site-verification=TV9-DBe4R80X4v0M4U_bd_J9cpOJM0nikft0jAgjmsQ"
+"docusign=1b0a6754-49b1-4db5-8540-d2c12664b289"
 "apple-domain-verification=30afIBcvSuDV2PLX"
-"MS=E4A68B9AB2BB9670BCE15412F62916164C0B20BB"
-"google-site-verification=wD8N7i1JTNTkezJ49swvWW48f8_9xveREV4oB-0Hf5o"
 "docusign=05958488-4752-4ef2-95eb-aa7ba8a3bd0e"
-"docusign=1b0a6754-49b1-4db5-8540-d2c12664b289"
-"v=spf1 include:_spf.google.com ~all"
-"globalsign-smime-dv=CDYX+XFHUw2wml6/Gb8+59BsH31KzUr6c1l2BPvqKX8="
-"facebook-domain-verification=22rm551cu4k0ab0bxsw536tlds4h95"
 </t>
         </is>
       </c>
@@ -580,16 +589,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MarkMonitor, Inc.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-01-18 21:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t xml:space="preserve">74.6.231.21
+98.137.11.164
+74.6.143.26
+74.6.143.25
 74.6.231.20
 98.137.11.163
-74.6.143.25
-74.6.143.26
-98.137.11.164
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">1 mta6.am0.yahoodns.net.
 1 mta7.am0.yahoodns.net.
@@ -597,16 +621,11 @@
 </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MarkMonitor, Inc.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">"v=spf1 redirect=_spf.mail.yahoo.com"
+"edb3bff2c0d64622a9b2250438277a59"
 "facebook-domain-verification=gysqrcd69g0ej34f4jfn0huivkym1p"
-"edb3bff2c0d64622a9b2250438277a59"
 </t>
         </is>
       </c>
@@ -619,74 +638,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">31.13.79.35
-</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>RegistrarSafe, LLC</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">157.240.7.35
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t xml:space="preserve">10 smtpin.vvv.facebook.com.
 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RegistrarSafe, LLC</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"google-site-verification=wdH5DTJTc9AYNwVunSVFeK0hYDGUIEOGb-RReU6pJlY"
-"google-site-verification=A2WZWCNQHrGV_TWwKh6KHY90tY0SHZo_RnyMJoDaG0s"
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"google-site-verification=A2WZWCNQHrGV_TWwKh6KHY90tY0SHZo_RnyMJoDaG0s"
+"google-site-verification=wdH5DTJTc9AYNwVunSVFeK0hYDGUIEOGb-RReU6pJlY"
 "v=spf1 redirect=_spf.facebook.com"
 </t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>&lt;dns.resolver.Answer object at 0x7fe76def6dc0&gt;</t>
+        </is>
+      </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>outlook.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">40.97.153.146
-40.97.148.226
-40.97.116.82
-40.97.161.50
-40.97.128.194
-40.97.164.146
-40.97.156.114
-40.97.160.2
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 outlook-com.olc.protection.outlook.com.
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MarkMonitor, Inc.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"v=spf1 include:spf-a.outlook.com include:spf-b.outlook.com ip4:157.55.9.128/25 include:spf.protection.outlook.com include:spf-a.hotmail.com include:_spf-ssg-b.microsoft.com include:_spf-ssg-c.microsoft.com ~all"
-"google-site-verification=DC2uC-T8kD33lINhNzfo0bNBrw-vrCXs5BPF5BXY56g"
-"google-site-verification=0iLWhIMhXEkeWwWfFU4ursTn-_OvoOjaA0Lr7Pg1sEM"
-</t>
-        </is>
-      </c>
-    </row>
+    <row r="1048576" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" display="yahoo.com" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" display="facebook.com" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" display="outlook.com" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779" bottom="0.9840277777777779" header="0.511805555555555" footer="0.511805555555555"/>
